--- a/output/Sanikiluaq/k_2/clusters_data.xlsx
+++ b/output/Sanikiluaq/k_2/clusters_data.xlsx
@@ -20,6 +20,141 @@
     <t>Cluster ID</t>
   </si>
   <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
     <t>949</t>
   </si>
   <si>
@@ -98,6 +233,9 @@
     <t>0</t>
   </si>
   <si>
+    <t>501</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -137,6 +275,9 @@
     <t>826</t>
   </si>
   <si>
+    <t>408</t>
+  </si>
+  <si>
     <t>701</t>
   </si>
   <si>
@@ -158,6 +299,9 @@
     <t>912</t>
   </si>
   <si>
+    <t>499</t>
+  </si>
+  <si>
     <t>604</t>
   </si>
   <si>
@@ -299,9 +443,6 @@
     <t>507</t>
   </si>
   <si>
-    <t>204</t>
-  </si>
-  <si>
     <t>601</t>
   </si>
   <si>
@@ -312,147 +453,6 @@
   </si>
   <si>
     <t>950</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>501</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>410</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>411</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
-    <t>412</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>413</t>
-  </si>
-  <si>
-    <t>499</t>
   </si>
 </sst>
 </file>
@@ -793,18 +793,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DB3"/>
+  <dimension ref="A1:DE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:106">
+    <row r="1" spans="1:109">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:106">
+    <row r="2" spans="1:109">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -830,458 +830,458 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" t="s">
         <v>20</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>21</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>22</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>11</v>
-      </c>
       <c r="AE2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AJ2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AK2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AL2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AN2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AP2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AQ2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AR2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AS2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AT2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AU2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AV2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AW2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AX2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AY2" t="s">
         <v>45</v>
       </c>
-      <c r="AZ2" t="s">
-        <v>46</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>47</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>48</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>68</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>72</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>73</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>74</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>75</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>76</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>77</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>78</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>79</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>80</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>81</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>82</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>83</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>84</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>85</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>86</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>87</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>88</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>89</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>90</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>91</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>93</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>94</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>95</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>97</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>51</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>11</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>98</v>
-      </c>
     </row>
-    <row r="3" spans="1:106">
+    <row r="3" spans="1:109">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3" t="s">
+        <v>64</v>
+      </c>
+      <c r="U3" t="s">
+        <v>65</v>
+      </c>
+      <c r="V3" t="s">
+        <v>66</v>
+      </c>
+      <c r="W3" t="s">
+        <v>67</v>
+      </c>
+      <c r="X3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH3" t="s">
         <v>99</v>
       </c>
-      <c r="C3" t="s">
+      <c r="BI3" t="s">
         <v>100</v>
       </c>
-      <c r="D3" t="s">
+      <c r="BJ3" t="s">
         <v>101</v>
       </c>
-      <c r="E3" t="s">
+      <c r="BK3" t="s">
         <v>102</v>
       </c>
-      <c r="F3" t="s">
+      <c r="BL3" t="s">
         <v>103</v>
       </c>
-      <c r="G3" t="s">
+      <c r="BM3" t="s">
         <v>104</v>
       </c>
-      <c r="H3" t="s">
+      <c r="BN3" t="s">
         <v>105</v>
       </c>
-      <c r="I3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="BO3" t="s">
         <v>106</v>
       </c>
-      <c r="K3" t="s">
+      <c r="BP3" t="s">
         <v>107</v>
       </c>
-      <c r="L3" t="s">
+      <c r="BQ3" t="s">
         <v>108</v>
       </c>
-      <c r="M3" t="s">
+      <c r="BR3" t="s">
         <v>109</v>
       </c>
-      <c r="N3" t="s">
+      <c r="BS3" t="s">
         <v>110</v>
       </c>
-      <c r="O3" t="s">
+      <c r="BT3" t="s">
         <v>111</v>
       </c>
-      <c r="P3" t="s">
+      <c r="BU3" t="s">
         <v>112</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="BV3" t="s">
         <v>113</v>
       </c>
-      <c r="R3" t="s">
+      <c r="BW3" t="s">
         <v>114</v>
       </c>
-      <c r="S3" t="s">
+      <c r="BX3" t="s">
         <v>115</v>
       </c>
-      <c r="T3" t="s">
+      <c r="BY3" t="s">
         <v>116</v>
       </c>
-      <c r="U3" t="s">
+      <c r="BZ3" t="s">
         <v>117</v>
       </c>
-      <c r="V3" t="s">
+      <c r="CA3" t="s">
         <v>118</v>
       </c>
-      <c r="W3" t="s">
-        <v>103</v>
-      </c>
-      <c r="X3" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y3" t="s">
+      <c r="CB3" t="s">
         <v>119</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="CC3" t="s">
         <v>120</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="CD3" t="s">
         <v>121</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="CE3" t="s">
         <v>122</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="CF3" t="s">
         <v>123</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="CG3" t="s">
         <v>124</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="CH3" t="s">
         <v>125</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="CI3" t="s">
         <v>126</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="CJ3" t="s">
         <v>127</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="CK3" t="s">
         <v>128</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="CL3" t="s">
         <v>129</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="CM3" t="s">
         <v>130</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="CN3" t="s">
         <v>131</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="CO3" t="s">
         <v>132</v>
       </c>
-      <c r="AM3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN3" t="s">
+      <c r="CP3" t="s">
         <v>133</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="CQ3" t="s">
         <v>134</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="CR3" t="s">
         <v>135</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="CS3" t="s">
         <v>136</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="CT3" t="s">
         <v>137</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="CU3" t="s">
         <v>138</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="CV3" t="s">
         <v>139</v>
       </c>
-      <c r="AU3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AV3" t="s">
+      <c r="CW3" t="s">
         <v>140</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="CX3" t="s">
         <v>141</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="CY3" t="s">
+        <v>34</v>
+      </c>
+      <c r="CZ3" t="s">
         <v>142</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="DA3" t="s">
         <v>143</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="DB3" t="s">
         <v>144</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="DC3" t="s">
+        <v>99</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>56</v>
+      </c>
+      <c r="DE3" t="s">
         <v>145</v>
       </c>
     </row>

--- a/output/Sanikiluaq/k_2/clusters_data.xlsx
+++ b/output/Sanikiluaq/k_2/clusters_data.xlsx
@@ -41,6 +41,9 @@
     <t>211</t>
   </si>
   <si>
+    <t>501</t>
+  </si>
+  <si>
     <t>306</t>
   </si>
   <si>
@@ -146,6 +149,9 @@
     <t>100</t>
   </si>
   <si>
+    <t>408</t>
+  </si>
+  <si>
     <t>412</t>
   </si>
   <si>
@@ -155,6 +161,9 @@
     <t>413</t>
   </si>
   <si>
+    <t>499</t>
+  </si>
+  <si>
     <t>949</t>
   </si>
   <si>
@@ -233,9 +242,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>501</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -275,9 +281,6 @@
     <t>826</t>
   </si>
   <si>
-    <t>408</t>
-  </si>
-  <si>
     <t>701</t>
   </si>
   <si>
@@ -297,9 +300,6 @@
   </si>
   <si>
     <t>912</t>
-  </si>
-  <si>
-    <t>499</t>
   </si>
   <si>
     <t>604</t>
@@ -793,18 +793,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DE3"/>
+  <dimension ref="A1:DB3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:109">
+    <row r="1" spans="1:106">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:109">
+    <row r="2" spans="1:106">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -869,13 +869,13 @@
         <v>19</v>
       </c>
       <c r="V2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="W2" t="s">
         <v>5</v>
       </c>
       <c r="X2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y2" t="s">
         <v>21</v>
@@ -941,7 +941,7 @@
         <v>41</v>
       </c>
       <c r="AT2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AU2" t="s">
         <v>42</v>
@@ -955,333 +955,333 @@
       <c r="AX2" t="s">
         <v>45</v>
       </c>
+      <c r="AY2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="3" spans="1:109">
+    <row r="3" spans="1:106">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" t="s">
+        <v>68</v>
+      </c>
+      <c r="V3" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" t="s">
+        <v>70</v>
+      </c>
+      <c r="X3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD3" t="s">
         <v>59</v>
       </c>
-      <c r="P3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T3" t="s">
-        <v>64</v>
-      </c>
-      <c r="U3" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" t="s">
-        <v>66</v>
-      </c>
-      <c r="W3" t="s">
-        <v>67</v>
-      </c>
-      <c r="X3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>56</v>
-      </c>
       <c r="AE3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AF3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM3" t="s">
         <v>75</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>79</v>
-      </c>
       <c r="AN3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AO3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AP3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AQ3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AR3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AS3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AT3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AU3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AV3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AW3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AX3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AY3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AZ3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="BA3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="BB3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="BC3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="BD3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="BE3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="BF3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="BG3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="BH3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>112</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>117</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>122</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>127</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>128</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>129</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>130</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>131</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>132</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>135</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>136</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>137</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>140</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>143</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>144</v>
+      </c>
+      <c r="CZ3" t="s">
         <v>99</v>
       </c>
-      <c r="BI3" t="s">
-        <v>100</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>101</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>104</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>105</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>106</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>108</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>109</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>110</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>112</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>113</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>115</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>116</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>117</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>118</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>119</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>120</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>121</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>122</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>123</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>124</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>125</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>126</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>127</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>128</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>129</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>130</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>131</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>133</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>134</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>135</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>136</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>137</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>138</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>139</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>140</v>
-      </c>
-      <c r="CX3" t="s">
-        <v>141</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>34</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>142</v>
-      </c>
       <c r="DA3" t="s">
-        <v>143</v>
+        <v>59</v>
       </c>
       <c r="DB3" t="s">
-        <v>144</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>99</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>56</v>
-      </c>
-      <c r="DE3" t="s">
         <v>145</v>
       </c>
     </row>
